--- a/data/trans_orig/OT2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34564A75-02C1-429F-AE81-7FFAA6421098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AAFDDB-2A3A-4068-B372-AE1CA85E62E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7027A872-198A-4E67-A17C-AD5928262DAA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B52BB747-0EC1-43F5-9C53-BEAE27B22B08}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="156">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -141,7 +141,7 @@
     <t>20,9%</t>
   </si>
   <si>
-    <t>80,87%</t>
+    <t>80,86%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -156,7 +156,7 @@
     <t>19,78%</t>
   </si>
   <si>
-    <t>79,91%</t>
+    <t>80,14%</t>
   </si>
   <si>
     <t>24,64%</t>
@@ -168,7 +168,7 @@
     <t>19,71%</t>
   </si>
   <si>
-    <t>79,77%</t>
+    <t>79,09%</t>
   </si>
   <si>
     <t>24,52%</t>
@@ -180,7 +180,7 @@
     <t>39,61%</t>
   </si>
   <si>
-    <t>80,08%</t>
+    <t>80,15%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -231,28 +231,28 @@
     <t>48,66%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -267,64 +267,64 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>63,97%</t>
+    <t>64,0%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>42,23%</t>
+    <t>42,49%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>50,69%</t>
+    <t>56,41%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>36,14%</t>
+    <t>29,05%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>67,36%</t>
+    <t>72,25%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,51%</t>
+    <t>46,65%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>41,32%</t>
+    <t>34,88%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>83,59%</t>
+    <t>84,32%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>61,12%</t>
+    <t>60,55%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -363,7 +363,7 @@
     <t>87,63%</t>
   </si>
   <si>
-    <t>49,5%</t>
+    <t>50,06%</t>
   </si>
   <si>
     <t>33,09%</t>
@@ -372,7 +372,7 @@
     <t>12,37%</t>
   </si>
   <si>
-    <t>50,5%</t>
+    <t>49,94%</t>
   </si>
   <si>
     <t>66,05%</t>
@@ -411,25 +411,25 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>45,61%</t>
+    <t>43,89%</t>
   </si>
   <si>
     <t>85,33%</t>
@@ -438,7 +438,7 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>38,68%</t>
+    <t>34,51%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -447,61 +447,64 @@
     <t>4,57%</t>
   </si>
   <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>33,0%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>62,99%</t>
+    <t>58,24%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
 </sst>
 </file>
@@ -913,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712D8558-96BD-44C9-9D2B-DC7E08B1D144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9566BBE6-9E7B-4F41-8B1F-F61667330972}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3789,7 +3792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A296CBFF-F6F2-4250-A676-37F5B49DDED3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AA3627-7FF1-4422-AE5F-2A279DC7FD09}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6498,7 +6501,7 @@
         <v>23</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,7 +6522,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -6549,7 +6552,7 @@
         <v>23</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6567,13 @@
         <v>1019</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -6594,13 +6597,13 @@
         <v>1019</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6618,13 @@
         <v>974</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -6630,13 +6633,13 @@
         <v>2309</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -6645,13 +6648,13 @@
         <v>3283</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/OT2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AAFDDB-2A3A-4068-B372-AE1CA85E62E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3614C5D-71ED-4E41-A211-C658B1CE6C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B52BB747-0EC1-43F5-9C53-BEAE27B22B08}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67D5E3B0-CAB1-4DD4-8ADE-3AA7FA384C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -135,9 +135,6 @@
     <t>26,12%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
     <t>20,9%</t>
   </si>
   <si>
@@ -153,10 +150,13 @@
     <t>24,73%</t>
   </si>
   <si>
+    <t>75,16%</t>
+  </si>
+  <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>80,14%</t>
+    <t>60,2%</t>
   </si>
   <si>
     <t>24,64%</t>
@@ -168,7 +168,7 @@
     <t>19,71%</t>
   </si>
   <si>
-    <t>79,09%</t>
+    <t>79,8%</t>
   </si>
   <si>
     <t>24,52%</t>
@@ -180,7 +180,7 @@
     <t>39,61%</t>
   </si>
   <si>
-    <t>80,15%</t>
+    <t>80,09%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -195,7 +195,7 @@
     <t>42,38%</t>
   </si>
   <si>
-    <t>83,23%</t>
+    <t>83,76%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -207,7 +207,7 @@
     <t>18,89%</t>
   </si>
   <si>
-    <t>79,8%</t>
+    <t>78,3%</t>
   </si>
   <si>
     <t>29,84%</t>
@@ -216,7 +216,7 @@
     <t>17,79%</t>
   </si>
   <si>
-    <t>76,24%</t>
+    <t>78,25%</t>
   </si>
   <si>
     <t>51,86%</t>
@@ -225,34 +225,34 @@
     <t>20,94%</t>
   </si>
   <si>
-    <t>76,77%</t>
+    <t>79,91%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -267,70 +267,70 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>64,0%</t>
+    <t>61,88%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>42,49%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>56,41%</t>
+    <t>62,52%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>29,05%</t>
+    <t>35,91%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>72,25%</t>
+    <t>68,08%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,65%</t>
+    <t>46,9%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>34,88%</t>
+    <t>41,47%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>84,32%</t>
+    <t>83,59%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>60,55%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -363,7 +363,7 @@
     <t>87,63%</t>
   </si>
   <si>
-    <t>50,06%</t>
+    <t>50,18%</t>
   </si>
   <si>
     <t>33,09%</t>
@@ -372,7 +372,7 @@
     <t>12,37%</t>
   </si>
   <si>
-    <t>49,94%</t>
+    <t>49,82%</t>
   </si>
   <si>
     <t>66,05%</t>
@@ -381,7 +381,7 @@
     <t>29,04%</t>
   </si>
   <si>
-    <t>78,37%</t>
+    <t>78,24%</t>
   </si>
   <si>
     <t>36,85%</t>
@@ -390,7 +390,7 @@
     <t>20,64%</t>
   </si>
   <si>
-    <t>73,56%</t>
+    <t>73,62%</t>
   </si>
   <si>
     <t>33,95%</t>
@@ -402,7 +402,7 @@
     <t>50,31%</t>
   </si>
   <si>
-    <t>14,17%</t>
+    <t>14,09%</t>
   </si>
   <si>
     <t>86,88%</t>
@@ -411,34 +411,34 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -447,7 +447,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -459,52 +459,52 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>47,9%</t>
+    <t>48,26%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>41,88%</t>
+    <t>34,21%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>23,16%</t>
+    <t>22,11%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>32,01%</t>
+    <t>34,59%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>58,24%</t>
+    <t>55,74%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
 </sst>
 </file>
@@ -916,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9566BBE6-9E7B-4F41-8B1F-F61667330972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DAB503-6ADB-4E04-9EB6-B9556B3BC61F}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2573,7 +2573,7 @@
         <v>23</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -2582,13 +2582,13 @@
         <v>1107</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,22 +2624,22 @@
         <v>24</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2669,13 @@
         <v>1048</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2777,22 +2777,22 @@
         <v>24</v>
       </c>
       <c r="L40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,22 +2879,22 @@
         <v>24</v>
       </c>
       <c r="L42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3049,7 @@
         <v>24</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,7 +3151,7 @@
         <v>24</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,7 +3304,7 @@
         <v>24</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,7 +3792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AA3627-7FF1-4422-AE5F-2A279DC7FD09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9254514A-7C5C-4027-A280-DAC9F9DE7B44}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5202,7 +5202,7 @@
         <v>24</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>24</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,7 +5251,7 @@
         <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>24</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,7 +5300,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>24</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5349,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>24</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,7 +5398,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,7 +5564,7 @@
         <v>24</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5615,7 +5615,7 @@
         <v>24</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -5666,7 +5666,7 @@
         <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>24</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -5768,7 +5768,7 @@
         <v>24</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>24</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>

--- a/data/trans_orig/OT2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3614C5D-71ED-4E41-A211-C658B1CE6C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{297A11BB-C743-4807-BF41-834C05BD7B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67D5E3B0-CAB1-4DD4-8ADE-3AA7FA384C1E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F30B48D-C08E-40AD-B0B9-F5E47D447D72}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="155">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -135,10 +135,13 @@
     <t>26,12%</t>
   </si>
   <si>
+    <t>76,17%</t>
+  </si>
+  <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>80,86%</t>
+    <t>80,87%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -150,13 +153,10 @@
     <t>24,73%</t>
   </si>
   <si>
-    <t>75,16%</t>
-  </si>
-  <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>60,2%</t>
+    <t>79,91%</t>
   </si>
   <si>
     <t>24,64%</t>
@@ -168,55 +168,55 @@
     <t>19,71%</t>
   </si>
   <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
     <t>29,84%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>78,25%</t>
+    <t>76,24%</t>
   </si>
   <si>
     <t>51,86%</t>
@@ -225,7 +225,7 @@
     <t>20,94%</t>
   </si>
   <si>
-    <t>79,91%</t>
+    <t>76,77%</t>
   </si>
   <si>
     <t>48,66%</t>
@@ -234,25 +234,25 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>82,83%</t>
+    <t>82,88%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -267,43 +267,43 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>61,88%</t>
+    <t>63,97%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>42,23%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>62,52%</t>
+    <t>50,69%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>35,91%</t>
+    <t>36,14%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>68,08%</t>
+    <t>67,36%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,9%</t>
+    <t>46,51%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>41,47%</t>
+    <t>41,32%</t>
   </si>
   <si>
     <t>34,3%</t>
@@ -315,16 +315,16 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>50,73%</t>
+    <t>61,12%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -363,7 +363,7 @@
     <t>87,63%</t>
   </si>
   <si>
-    <t>50,18%</t>
+    <t>49,5%</t>
   </si>
   <si>
     <t>33,09%</t>
@@ -372,7 +372,7 @@
     <t>12,37%</t>
   </si>
   <si>
-    <t>49,82%</t>
+    <t>50,5%</t>
   </si>
   <si>
     <t>66,05%</t>
@@ -381,7 +381,7 @@
     <t>29,04%</t>
   </si>
   <si>
-    <t>78,24%</t>
+    <t>78,37%</t>
   </si>
   <si>
     <t>36,85%</t>
@@ -390,7 +390,7 @@
     <t>20,64%</t>
   </si>
   <si>
-    <t>73,62%</t>
+    <t>73,56%</t>
   </si>
   <si>
     <t>33,95%</t>
@@ -402,7 +402,7 @@
     <t>50,31%</t>
   </si>
   <si>
-    <t>14,09%</t>
+    <t>14,17%</t>
   </si>
   <si>
     <t>86,88%</t>
@@ -411,34 +411,34 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>39,94%</t>
+    <t>38,68%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -447,7 +447,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>22,51%</t>
+    <t>23,16%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -459,52 +459,49 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>48,26%</t>
+    <t>56,77%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>34,21%</t>
+    <t>33,56%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>22,11%</t>
+    <t>21,43%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>34,59%</t>
+    <t>33,0%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>55,74%</t>
+    <t>62,99%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
 </sst>
 </file>
@@ -916,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DAB503-6ADB-4E04-9EB6-B9556B3BC61F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87F5616-2A4A-4A49-9590-4F43DFA95C93}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2573,7 +2570,7 @@
         <v>23</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -2582,13 +2579,13 @@
         <v>1107</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2621,7 @@
         <v>24</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2639,7 +2636,7 @@
         <v>24</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2666,13 @@
         <v>1048</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2777,7 +2774,7 @@
         <v>24</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -2792,7 +2789,7 @@
         <v>24</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2876,7 @@
         <v>24</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -2894,7 +2891,7 @@
         <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3046,7 @@
         <v>24</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,7 +3148,7 @@
         <v>24</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,7 +3301,7 @@
         <v>24</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,7 +3789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9254514A-7C5C-4027-A280-DAC9F9DE7B44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9A2D62-8784-429C-8998-DF285123F17A}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5202,7 +5199,7 @@
         <v>24</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5230,7 +5227,7 @@
         <v>24</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,7 +5248,7 @@
         <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5279,7 +5276,7 @@
         <v>24</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,7 +5297,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5328,7 +5325,7 @@
         <v>24</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5377,7 +5374,7 @@
         <v>24</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,7 +5395,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5426,7 +5423,7 @@
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,7 +5561,7 @@
         <v>24</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5615,7 +5612,7 @@
         <v>24</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -5666,7 +5663,7 @@
         <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -5717,7 +5714,7 @@
         <v>24</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -5768,7 +5765,7 @@
         <v>24</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -5819,7 +5816,7 @@
         <v>24</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6501,7 +6498,7 @@
         <v>23</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6519,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -6552,7 +6549,7 @@
         <v>23</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6564,13 @@
         <v>1019</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -6597,13 +6594,13 @@
         <v>1019</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6615,13 @@
         <v>974</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -6633,13 +6630,13 @@
         <v>2309</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -6648,13 +6645,13 @@
         <v>3283</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/OT2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{297A11BB-C743-4807-BF41-834C05BD7B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2000C3D4-711D-4E3E-88E6-917B07B1D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F30B48D-C08E-40AD-B0B9-F5E47D447D72}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A8AF4A82-677F-4225-B808-F94300C7E4D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="147">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otros</t>
@@ -93,10 +93,10 @@
     <t>Hernia de Hiato</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -117,7 +117,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>65,76%</t>
@@ -129,7 +129,7 @@
     <t>34,24%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>26,12%</t>
@@ -183,49 +183,31 @@
     <t>80,08%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>66,94%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>33,06%</t>
   </si>
   <si>
     <t>48,66%</t>
@@ -375,37 +357,31 @@
     <t>50,5%</t>
   </si>
   <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
   <si>
     <t>67,69%</t>
@@ -913,8 +889,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87F5616-2A4A-4A49-9590-4F43DFA95C93}">
-  <dimension ref="A1:Q60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB4162E-B817-4A19-9B52-F85D4BC02BEF}">
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2953,49 +2929,47 @@
         <v>10</v>
       </c>
       <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="7">
-        <v>1</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1164</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="M44" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>2149</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,17 +2980,15 @@
       <c r="C45" s="7">
         <v>0</v>
       </c>
-      <c r="D45" s="7">
-        <v>0</v>
-      </c>
+      <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3031,7 +3003,7 @@
         <v>24</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3046,7 +3018,7 @@
         <v>24</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,17 +3029,15 @@
       <c r="C46" s="7">
         <v>0</v>
       </c>
-      <c r="D46" s="7">
-        <v>0</v>
-      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3076,7 +3046,7 @@
         <v>958</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>23</v>
@@ -3091,13 +3061,13 @@
         <v>958</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,17 +3078,15 @@
       <c r="C47" s="7">
         <v>0</v>
       </c>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
+      <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3133,7 +3101,7 @@
         <v>24</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3148,7 +3116,7 @@
         <v>24</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,17 +3127,15 @@
       <c r="C48" s="7">
         <v>0</v>
       </c>
-      <c r="D48" s="7">
-        <v>0</v>
-      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -3178,7 +3144,7 @@
         <v>902</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>23</v>
@@ -3193,13 +3159,13 @@
         <v>902</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,19 +3174,17 @@
         <v>16</v>
       </c>
       <c r="C49" s="7">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3235,22 +3199,22 @@
         <v>24</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>1062</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,17 +3225,15 @@
       <c r="C50" s="7">
         <v>0</v>
       </c>
-      <c r="D50" s="7">
-        <v>0</v>
-      </c>
+      <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3286,7 +3248,7 @@
         <v>24</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3301,7 +3263,7 @@
         <v>24</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,25 +3272,23 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="7">
         <v>2</v>
       </c>
-      <c r="D51" s="7">
-        <v>2047</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="7">
-        <v>3</v>
-      </c>
       <c r="I51" s="7">
-        <v>3024</v>
+        <v>1860</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>22</v>
@@ -3340,10 +3300,10 @@
         <v>22</v>
       </c>
       <c r="M51" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51" s="7">
-        <v>5071</v>
+        <v>1860</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>22</v>
@@ -3357,55 +3317,55 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>3009</v>
+        <v>985</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H52" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7">
-        <v>3336</v>
+        <v>1164</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M52" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N52" s="7">
-        <v>6345</v>
+        <v>2149</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,7 +3386,7 @@
         <v>24</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -3441,7 +3401,7 @@
         <v>24</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -3456,7 +3416,7 @@
         <v>24</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,37 +3437,37 @@
         <v>24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H54" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="M54" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54" s="7">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,37 +3488,37 @@
         <v>24</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="M55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" s="7">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,49 +3527,49 @@
         <v>15</v>
       </c>
       <c r="C56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="7">
-        <v>1054</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="M56" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>1956</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,49 +3578,49 @@
         <v>16</v>
       </c>
       <c r="C57" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>2121</v>
+        <v>1062</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" s="7">
         <v>1</v>
       </c>
-      <c r="I57" s="7">
-        <v>1040</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M57" s="7">
-        <v>3</v>
-      </c>
       <c r="N57" s="7">
-        <v>3161</v>
+        <v>1062</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3641,7 @@
         <v>24</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -3696,7 +3656,7 @@
         <v>24</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -3711,7 +3671,7 @@
         <v>24</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,63 +3680,474 @@
         <v>3</v>
       </c>
       <c r="C59" s="7">
+        <v>2</v>
+      </c>
+      <c r="D59" s="7">
+        <v>2047</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7">
+        <v>1164</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" s="7">
+        <v>3</v>
+      </c>
+      <c r="N59" s="7">
+        <v>3211</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="7">
+        <v>3</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3009</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" s="7">
+        <v>3</v>
+      </c>
+      <c r="I60" s="7">
+        <v>3336</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M60" s="7">
         <v>6</v>
       </c>
-      <c r="D59" s="7">
+      <c r="N60" s="7">
+        <v>6345</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2</v>
+      </c>
+      <c r="I62" s="7">
+        <v>2006</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M62" s="7">
+        <v>2</v>
+      </c>
+      <c r="N62" s="7">
+        <v>2006</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1045</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M63" s="7">
+        <v>1</v>
+      </c>
+      <c r="N63" s="7">
+        <v>1045</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1054</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7">
+        <v>902</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M64" s="7">
+        <v>2</v>
+      </c>
+      <c r="N64" s="7">
+        <v>1956</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2121</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7">
+        <v>1040</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M65" s="7">
+        <v>3</v>
+      </c>
+      <c r="N65" s="7">
+        <v>3161</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7">
+        <v>6</v>
+      </c>
+      <c r="D67" s="7">
         <v>6184</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="7">
+      <c r="E67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="7">
         <v>8</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I67" s="7">
         <v>8328</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M59" s="7">
+      <c r="J67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="7">
         <v>14</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N67" s="7">
         <v>14512</v>
       </c>
-      <c r="O59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>96</v>
+      <c r="O67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A36:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A60:A67"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3789,8 +4160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9A2D62-8784-429C-8998-DF285123F17A}">
-  <dimension ref="A1:Q60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D996FA-E9EE-41FF-AEED-B4D00D28B6E5}">
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3806,7 +4177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4308,7 +4679,7 @@
         <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>22</v>
@@ -4362,7 +4733,7 @@
         <v>24</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4784,7 @@
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,7 +4835,7 @@
         <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4886,7 @@
         <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +4937,7 @@
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,7 +4988,7 @@
         <v>24</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +5086,7 @@
         <v>816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>23</v>
@@ -4772,7 +5143,7 @@
         <v>24</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,7 +5194,7 @@
         <v>24</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +5245,7 @@
         <v>24</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,7 +5296,7 @@
         <v>24</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,7 +5341,7 @@
         <v>1019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>23</v>
@@ -5027,7 +5398,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,10 +5466,10 @@
         <v>3665</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>20</v>
@@ -5123,10 +5494,10 @@
         <v>3665</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>20</v>
@@ -5144,13 +5515,13 @@
         <v>1084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5172,13 +5543,13 @@
         <v>1084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,7 +5860,7 @@
         <v>2191</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>23</v>
@@ -5507,7 +5878,7 @@
         <v>20</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>22</v>
@@ -5519,10 +5890,10 @@
         <v>7673</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>20</v>
@@ -5576,7 +5947,7 @@
         <v>24</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,7 +5998,7 @@
         <v>24</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,7 +6049,7 @@
         <v>24</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,7 +6064,7 @@
         <v>1083</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>23</v>
@@ -5723,13 +6094,13 @@
         <v>1083</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,7 +6151,7 @@
         <v>24</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,7 +6202,7 @@
         <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +6264,13 @@
         <v>10</v>
       </c>
       <c r="C44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>1895</v>
+        <v>1051</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
@@ -5920,22 +6291,22 @@
         <v>24</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>1895</v>
+        <v>1050</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,37 +6327,37 @@
         <v>24</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,37 +6378,37 @@
         <v>24</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,37 +6429,37 @@
         <v>24</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
-        <v>1347</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="7">
-        <v>1</v>
-      </c>
-      <c r="N47" s="7">
-        <v>1347</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,37 +6480,37 @@
         <v>24</v>
       </c>
       <c r="G48" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>0</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,37 +6531,37 @@
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6576,7 @@
         <v>974</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>23</v>
@@ -6214,34 +6585,34 @@
         <v>20</v>
       </c>
       <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
+        <v>973</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="7">
         <v>2</v>
       </c>
-      <c r="I50" s="7">
-        <v>2309</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="N50" s="7">
+        <v>1948</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="M50" s="7">
-        <v>3</v>
-      </c>
-      <c r="N50" s="7">
-        <v>3283</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,40 +6621,40 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
+        <v>2</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7">
+        <v>973</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="7">
         <v>3</v>
       </c>
-      <c r="D51" s="7">
-        <v>2869</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="7">
-        <v>3</v>
-      </c>
-      <c r="I51" s="7">
-        <v>3656</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M51" s="7">
-        <v>6</v>
-      </c>
       <c r="N51" s="7">
-        <v>6525</v>
+        <v>2998</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>22</v>
@@ -6297,55 +6668,55 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>8717</v>
+        <v>845</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="H52" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>7165</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="M52" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>15882</v>
+        <v>845</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,19 +6725,19 @@
         <v>12</v>
       </c>
       <c r="C53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="7">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -6381,22 +6752,22 @@
         <v>24</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="M53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="7">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6788,7 @@
         <v>24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -6432,7 +6803,7 @@
         <v>24</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -6447,7 +6818,7 @@
         <v>24</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6839,7 @@
         <v>24</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -6477,13 +6848,13 @@
         <v>1347</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -6492,13 +6863,13 @@
         <v>1347</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,19 +6878,19 @@
         <v>15</v>
       </c>
       <c r="C56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="7">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -6534,22 +6905,22 @@
         <v>24</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="M56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,19 +6929,19 @@
         <v>16</v>
       </c>
       <c r="C57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7">
-        <v>1019</v>
+        <v>0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -6585,22 +6956,22 @@
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="M57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="7">
-        <v>1019</v>
+        <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,49 +6980,49 @@
         <v>17</v>
       </c>
       <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="7">
         <v>1</v>
       </c>
-      <c r="D58" s="7">
-        <v>974</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H58" s="7">
-        <v>2</v>
-      </c>
       <c r="I58" s="7">
-        <v>2309</v>
+        <v>1336</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="M58" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N58" s="7">
-        <v>3283</v>
+        <v>1335</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,63 +7031,474 @@
         <v>3</v>
       </c>
       <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7">
+        <v>845</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="7">
+        <v>2</v>
+      </c>
+      <c r="I59" s="7">
+        <v>2683</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" s="7">
+        <v>3</v>
+      </c>
+      <c r="N59" s="7">
+        <v>3527</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="7">
+        <v>8</v>
+      </c>
+      <c r="D60" s="7">
+        <v>8717</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" s="7">
+        <v>7</v>
+      </c>
+      <c r="I60" s="7">
+        <v>7165</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M60" s="7">
+        <v>15</v>
+      </c>
+      <c r="N60" s="7">
+        <v>15882</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="7">
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1084</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M61" s="7">
+        <v>1</v>
+      </c>
+      <c r="N61" s="7">
+        <v>1084</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1347</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M63" s="7">
+        <v>1</v>
+      </c>
+      <c r="N63" s="7">
+        <v>1347</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1083</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M64" s="7">
+        <v>1</v>
+      </c>
+      <c r="N64" s="7">
+        <v>1083</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1019</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M65" s="7">
+        <v>1</v>
+      </c>
+      <c r="N65" s="7">
+        <v>1019</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7">
+        <v>974</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="7">
+        <v>2</v>
+      </c>
+      <c r="I66" s="7">
+        <v>2309</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M66" s="7">
+        <v>3</v>
+      </c>
+      <c r="N66" s="7">
+        <v>3283</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7">
+        <v>12</v>
+      </c>
+      <c r="D67" s="7">
         <v>12877</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="7">
+      <c r="E67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="7">
         <v>10</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I67" s="7">
         <v>10821</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M59" s="7">
-        <v>22</v>
-      </c>
-      <c r="N59" s="7">
+      <c r="J67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="7">
+        <v>22</v>
+      </c>
+      <c r="N67" s="7">
         <v>23698</v>
       </c>
-      <c r="O59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>96</v>
+      <c r="O67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A36:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A60:A67"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
